--- a/用例数据/股转/协议交易/A5/测试结果.xlsx
+++ b/用例数据/股转/协议交易/A5/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5990" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5994" uniqueCount="727">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -2152,44 +2152,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GZ11721600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANQ001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ11721600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GZ11721601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GZ11721600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>810003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>810004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANQ001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_002_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_001_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GZ11721600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GZ11721601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>810003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>9.43669938</t>
+  </si>
+  <si>
+    <t>-763.935</t>
+  </si>
+  <si>
+    <t>10.51443333</t>
+  </si>
+  <si>
+    <t>20221007203248</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>20221007111758</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20221010000000</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>0.0000000000</t>
+  </si>
+  <si>
+    <t>20221007203249</t>
+  </si>
+  <si>
+    <t>30051491</t>
+  </si>
+  <si>
+    <t>-31543.300</t>
+  </si>
+  <si>
+    <t>999309689.590</t>
+  </si>
+  <si>
+    <t>3.150</t>
+  </si>
+  <si>
+    <t>000006907397</t>
+  </si>
+  <si>
+    <t>30051495</t>
+  </si>
+  <si>
+    <t>3806.660</t>
+  </si>
+  <si>
+    <t>999251363.770</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>000006907396</t>
+  </si>
+  <si>
+    <t>30051513</t>
+  </si>
+  <si>
+    <t>999286612.190</t>
+  </si>
+  <si>
+    <t>000006907395</t>
+  </si>
+  <si>
+    <t>30051517</t>
+  </si>
+  <si>
+    <t>999228286.370</t>
+  </si>
+  <si>
+    <t>000006907394</t>
   </si>
 </sst>
 </file>
@@ -2558,164 +2619,164 @@
       <selection activeCell="A65" sqref="A65:XFD69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="29" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.75" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="22.125" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="30" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.375" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="23" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.5" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="23" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="21.625" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="23" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="21.125" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="20" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +3039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -3238,7 +3299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
@@ -3498,7 +3559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>115</v>
       </c>
@@ -3758,7 +3819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>120</v>
       </c>
@@ -4018,7 +4079,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>122</v>
       </c>
@@ -4278,7 +4339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
@@ -4538,7 +4599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
@@ -4798,7 +4859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>643</v>
       </c>
@@ -5061,7 +5122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>643</v>
       </c>
@@ -5324,7 +5385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>643</v>
       </c>
@@ -5587,20 +5648,20 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -6049,7 +6110,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>87</v>
       </c>
@@ -6462,7 +6523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -6857,7 +6918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>122</v>
       </c>
@@ -7270,7 +7331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
@@ -7665,17 +7726,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="34" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -8097,7 +8158,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>272</v>
       </c>
@@ -8438,7 +8499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>437</v>
       </c>
@@ -8779,7 +8840,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>453</v>
       </c>
@@ -9120,7 +9181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>457</v>
       </c>
@@ -9461,18 +9522,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="46" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -9618,7 +9679,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>272</v>
       </c>
@@ -9743,7 +9804,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="48" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>437</v>
       </c>
@@ -9868,7 +9929,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="49" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>453</v>
       </c>
@@ -9993,7 +10054,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>457</v>
       </c>
@@ -10118,16 +10179,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="56" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -10552,7 +10613,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>272</v>
       </c>
@@ -10944,7 +11005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>437</v>
       </c>
@@ -11336,7 +11397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>453</v>
       </c>
@@ -11728,7 +11789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>457</v>
       </c>
@@ -12120,15 +12181,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -12226,7 +12287,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>272</v>
       </c>
@@ -12285,7 +12346,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>437</v>
       </c>
@@ -12344,7 +12405,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>453</v>
       </c>
@@ -12397,7 +12458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>457</v>
       </c>
@@ -12450,36 +12511,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="95" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -12880,7 +12941,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="96" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>272</v>
       </c>
@@ -13140,7 +13201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>437</v>
       </c>
@@ -13400,7 +13461,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>453</v>
       </c>
@@ -13660,7 +13721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>457</v>
       </c>
@@ -13920,137 +13981,137 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14061,46 +14122,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -14195,7 +14256,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>662</v>
       </c>
@@ -14251,7 +14312,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>662</v>
       </c>
@@ -14307,7 +14368,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>666</v>
       </c>
@@ -14321,7 +14382,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>663</v>
@@ -14357,7 +14418,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>666</v>
       </c>
@@ -14368,7 +14429,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>109</v>
@@ -14422,149 +14483,149 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="29" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="18" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.5" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="9" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="18.75" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.25" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.5" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="23" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.5" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="23" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.375" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="18" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.5" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="19" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="16.875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="20" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14986,7 +15047,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -15375,7 +15436,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -15386,7 +15447,7 @@
         <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>90</v>
@@ -15764,7 +15825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
@@ -15775,7 +15836,7 @@
         <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>90</v>
@@ -16153,7 +16214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -16557,58 +16618,58 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
@@ -16751,7 +16812,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>477</v>
       </c>
@@ -16777,7 +16838,7 @@
         <v>443</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>98</v>
@@ -16873,7 +16934,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
@@ -16995,7 +17056,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>477</v>
       </c>
@@ -17117,7 +17178,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>477</v>
       </c>
@@ -17248,149 +17309,149 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH5"/>
+  <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="18.75" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.25" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.375" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="19" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
@@ -17806,27 +17867,27 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>89</v>
@@ -17841,16 +17902,16 @@
         <v>90</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>413</v>
+        <v>102</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>102</v>
@@ -17862,40 +17923,40 @@
         <v>103</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>97</v>
+        <v>712</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>99</v>
@@ -17913,13 +17974,13 @@
         <v>99</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>99</v>
@@ -17946,7 +18007,7 @@
         <v>423</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>104</v>
@@ -17973,10 +18034,10 @@
         <v>94</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>99</v>
@@ -17988,7 +18049,7 @@
         <v>427</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>94</v>
@@ -18015,7 +18076,7 @@
         <v>272</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>94</v>
+        <v>706</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>99</v>
@@ -18033,25 +18094,25 @@
         <v>94</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>674</v>
+        <v>715</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>278</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>432</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>433</v>
+        <v>708</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>94</v>
@@ -18078,28 +18139,28 @@
         <v>100</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>434</v>
+        <v>709</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="DR2" s="1" t="s">
         <v>99</v>
@@ -18108,22 +18169,22 @@
         <v>99</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="DU2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="DW2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="DY2" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="EA2" s="1" t="s">
         <v>436</v>
@@ -18140,28 +18201,31 @@
       <c r="EG2" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>675</v>
+        <v>716</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>701</v>
+        <v>439</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>89</v>
@@ -18176,16 +18240,16 @@
         <v>90</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>413</v>
+        <v>102</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>102</v>
@@ -18197,40 +18261,40 @@
         <v>103</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>676</v>
+        <v>717</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>677</v>
+        <v>718</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>99</v>
@@ -18248,13 +18312,13 @@
         <v>99</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>99</v>
@@ -18281,7 +18345,7 @@
         <v>423</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>104</v>
@@ -18308,10 +18372,10 @@
         <v>94</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>99</v>
@@ -18323,7 +18387,7 @@
         <v>427</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>94</v>
@@ -18350,7 +18414,7 @@
         <v>272</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>94</v>
+        <v>706</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>99</v>
@@ -18368,25 +18432,25 @@
         <v>94</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>278</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="CR3" s="1" t="s">
         <v>432</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>433</v>
+        <v>708</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>94</v>
@@ -18413,28 +18477,28 @@
         <v>100</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>434</v>
+        <v>709</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="DR3" s="1" t="s">
         <v>99</v>
@@ -18443,22 +18507,22 @@
         <v>99</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="DU3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="DW3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="EA3" s="1" t="s">
         <v>436</v>
@@ -18475,28 +18539,31 @@
       <c r="EG3" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>700</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>116</v>
@@ -18511,16 +18578,16 @@
         <v>117</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>413</v>
+        <v>102</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>102</v>
@@ -18532,40 +18599,40 @@
         <v>103</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>97</v>
+        <v>712</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>99</v>
@@ -18583,13 +18650,13 @@
         <v>99</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>99</v>
@@ -18616,7 +18683,7 @@
         <v>423</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>104</v>
@@ -18643,10 +18710,10 @@
         <v>94</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>99</v>
@@ -18658,7 +18725,7 @@
         <v>427</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>94</v>
@@ -18685,7 +18752,7 @@
         <v>272</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>94</v>
+        <v>706</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>99</v>
@@ -18703,25 +18770,25 @@
         <v>94</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="CR4" s="1" t="s">
         <v>432</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>433</v>
+        <v>708</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>94</v>
@@ -18748,28 +18815,28 @@
         <v>100</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>434</v>
+        <v>709</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="DR4" s="1" t="s">
         <v>99</v>
@@ -18778,22 +18845,22 @@
         <v>99</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="DU4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="DW4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="DY4" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="EA4" s="1" t="s">
         <v>436</v>
@@ -18810,28 +18877,31 @@
       <c r="EG4" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>116</v>
@@ -18846,16 +18916,16 @@
         <v>117</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>413</v>
+        <v>102</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>102</v>
@@ -18867,40 +18937,40 @@
         <v>103</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>676</v>
+        <v>717</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>99</v>
@@ -18918,13 +18988,13 @@
         <v>99</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>99</v>
@@ -18951,7 +19021,7 @@
         <v>423</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>104</v>
@@ -18978,10 +19048,10 @@
         <v>94</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>99</v>
@@ -18993,7 +19063,7 @@
         <v>427</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>94</v>
@@ -19020,7 +19090,7 @@
         <v>272</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>94</v>
+        <v>706</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>99</v>
@@ -19038,25 +19108,25 @@
         <v>94</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>278</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="CR5" s="1" t="s">
         <v>432</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>433</v>
+        <v>708</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>94</v>
@@ -19083,28 +19153,28 @@
         <v>100</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>434</v>
+        <v>709</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DL5" s="1" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="DM5" s="1" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="DN5" s="1" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="DO5" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="DP5" s="1" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="DQ5" s="1" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="DR5" s="1" t="s">
         <v>99</v>
@@ -19113,22 +19183,22 @@
         <v>99</v>
       </c>
       <c r="DT5" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="DU5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="DW5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DX5" s="1" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="DY5" s="1" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="EA5" s="1" t="s">
         <v>436</v>
@@ -19144,6 +19214,9 @@
       </c>
       <c r="EG5" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -19157,99 +19230,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH4"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.75" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="30" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -19509,27 +19582,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>698</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>110</v>
@@ -19538,22 +19611,22 @@
         <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>127</v>
+        <v>700</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>94</v>
@@ -19583,7 +19656,7 @@
         <v>102</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>699</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>104</v>
@@ -19709,10 +19782,10 @@
         <v>94</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>127</v>
+        <v>700</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>99</v>
@@ -19769,7 +19842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -19780,7 +19853,7 @@
         <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>695</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>118</v>
@@ -19789,7 +19862,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>697</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>93</v>
@@ -19807,7 +19880,7 @@
         <v>126</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>121</v>
+        <v>701</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>98</v>
@@ -19975,7 +20048,7 @@
         <v>126</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>121</v>
+        <v>701</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>108</v>
@@ -20029,21 +20102,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>696</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>90</v>
@@ -20058,22 +20131,22 @@
         <v>94</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>123</v>
+        <v>702</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>94</v>
@@ -20229,10 +20302,10 @@
         <v>94</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>123</v>
+        <v>702</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>99</v>
@@ -20290,7 +20363,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CH1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20304,157 +20376,157 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.75" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.5" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="13" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.625" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="23" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="104" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.625" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="15" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="21.875" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="18" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -20900,7 +20972,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>692</v>
       </c>
@@ -21310,7 +21382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>693</v>
       </c>
